--- a/Data_processed/industry/glass.xlsx
+++ b/Data_processed/industry/glass.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:CW14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A.080.01.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Materials, glass, construction</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Glass for windows and facades (float glass)</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.2644141860882</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01353164106</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01888295205</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0152004029782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.21679919</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0061396633</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.009527418899999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.009654172000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0033346371</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.00011975325</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.00042307871</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.00092821855</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.00056093298</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0022233947</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01463536</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.42566e-05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.1099982e-06</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.445327933333333</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>22.026247</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>20.977704</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.53739371</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.17157742</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.22955047</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.11002077</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.027316368</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.02471062</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0011536401</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0014521082</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.481452e-06</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4.2664203e-09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.2033765</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.3412962e-06</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4.0470131e-09</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.1057018e-13</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>5.3557692e-12</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3.9730621e-10</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.3947e-07</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.6025686e-11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.4295395e-10</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6.1285201e-14</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.7048186e-15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.4107614e-13</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.0519248e-14</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>2.4112944e-15</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2.356005e-11</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2.5959083e-10</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5.1209348e-20</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>5.6895329e-05</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.20331961</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>7.218221400000001e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.0487451e-06</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>4.0299577e-05</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.1285923e-07</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.7352056e-06</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1.1023494e-07</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.5029736e-09</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.6602384e-07</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.8214503e-07</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3.2416403e-07</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1.1324294e-16</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>9.272493200000001e-13</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.9026462e-06</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>2.6278171e-05</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>2.0937786e-08</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>7.8483648e-13</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1.4453423</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.0045780825</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00074962135</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.00056304014</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.1153305e-10</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.3039532e-08</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>6.5049435e-05</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.0068605433</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>2.7938553</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.21679919</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.03012694180999999</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0165994107482</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.01888295205</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.01519629298</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A.080.02.101</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Materials,  glass, other glass</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Borosilicate glass (Pyrex)</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.3414474026384</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01869090064</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0302091105</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0197261514984</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.27282124</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.013753551</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01356469</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.013183432</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0050013903</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.00011579609</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00039028225</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00087728762</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0032060077</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0019565874</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.016516527</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.699448e-05</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.6167984e-06</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.818808266666667</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>23.2696</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21.531861</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9229356399999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.24737144</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.37672138</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.19071063</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.036445157</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.033492954</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0015124985</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0014397045</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.0079709e-06</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5.5935595e-09</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.20163928</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.6911845e-06</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.1028314e-09</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.3941136e-13</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2.2244757e-11</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>8.8536362e-10</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.1551148e-07</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.4580919e-10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3.4449468e-10</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.3930977e-14</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.5002404e-15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.1725649e-13</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>9.8898928e-15</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2.243639e-15</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2.5833475e-11</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>3.4148046e-10</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4.5064226e-20</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0002390725</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.20140021</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.00012370098</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.5957244e-06</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>5.07132e-05</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.0700963e-07</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>4.5276713e-06</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>4.2161025e-07</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.3226168e-09</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>6.3877924e-07</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1.7475987e-07</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>3.0105035e-07</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9.9653787e-17</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>8.159794e-13</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2.6494776e-06</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>2.7470336e-05</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3.4100041e-05</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>6.906561e-13</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1.8161965</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.017715324</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.00187864</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.00059932656</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.0154977e-10</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.1872967e-08</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.00011702642</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.0065130771</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>2.774125</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.27282124</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.04688642926</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.0281991454184</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.0302091105</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.0197225347</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>A.080.02.102</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Materials,  glass, other glass</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Ceramic glass</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.5288283637064</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02706328201</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03776590469999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0304008069964</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.43359837</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.012279327</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.019054838</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.019308344</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0066692741</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0002395065</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.00084615741</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0018564371</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.001121866</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0044467894</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.029270721</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0001285132</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.2199964e-06</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>2.8906558</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>44.052493</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41.955409</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.0747874</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.34315484</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.45910093</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.22004154</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.054632735</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.049421239</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0023072801</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0029042164</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.962904e-06</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>8.5328406e-09</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.406753</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.6825924e-06</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.0940262e-09</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.2114035e-13</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.0711538e-11</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>7.9461241e-10</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.7894001e-07</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.5205137e-10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2.8590789e-10</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.225704e-13</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.4096372e-15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>4.8215228e-13</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2.1038497e-14</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4.8225887e-15</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4.71201e-11</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>5.1918166e-10</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.0241869e-19</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.00011379066</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.40663921</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.00014436443</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.0974901e-06</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>8.0599154e-05</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.2571847e-07</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>3.4704112e-06</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.2046989e-07</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3.0059472e-09</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>3.3204767e-07</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>3.6429007e-07</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>6.4832805e-07</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2.2648588e-16</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1.8544986e-12</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>3.8052924e-06</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>5.2556342e-05</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>4.1875572e-08</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1.5696729e-12</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>2.8906846</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.009156165000000001</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.0014992427</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.0011260803</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>2.230661e-10</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>2.6079063e-08</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.00013009887</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.013721086</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>5.5877106</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.43359837</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.06025388411</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.03319882209639999</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.03776590469999999</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.030392587</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>A.080.02.103</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Materials,  glass, other glass</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Recycled borosilicate glass (Pyrex)</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.2182564843135</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01198625165</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01667538711</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0160854355535</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.17350941</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0052272025</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.008062494599999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.008050039199999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0034019094</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.371163e-05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.00044059142</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0008089601</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.00052815084</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0025061692</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.015552652</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.056071e-05</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.6327135e-06</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.1567294</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>17.792089</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>16.792732</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.49017045</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1840557</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.22412572</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.1010055</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.022015815</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.019934375</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.00092832263</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0011531179</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.1951064e-06</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.4331458e-09</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1615011</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.0734808e-06</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.2389494e-09</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8.849271900000001e-14</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>6.0369234e-12</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3.7193939e-10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.2097689e-07</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.8386552e-11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.2538662e-10</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.9079539e-14</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.8204128e-15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2.5105042e-13</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.042865e-14</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.4028463e-15</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2.0861129e-11</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>2.4985986e-10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>5.7722224e-20</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>5.4124357e-05</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.16144698</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>5.8237124e-05</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>9.3516379e-07</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.2252684e-05</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>9.8058747e-08</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.4338497e-06</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1.2425478e-07</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.6941239e-09</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>1.8713898e-07</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1.4791097e-07</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>3.2911062e-07</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1.2764533e-16</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.0451782e-12</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1.5873127e-06</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>2.1116352e-05</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>2.359138e-08</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>8.8465307e-13</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1.1567456</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.0051590451</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.00067552612</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.00045280588</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1.1584252e-10</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1.3546262e-08</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>5.4137859e-05</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.0065337166</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>2.2195953</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.17350941</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.02608490885</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.0141032899135</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.01667538711</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.01608080284</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>A.080.02.104</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Materials,  glass, other glass</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Recycled silica glass</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.4826706598317</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02551789251</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03555833881</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0312858385117</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.39030859</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.011366866</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.017589913</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.017704211</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0067365465</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.00021346488</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.00086367013</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0017371786</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0010890838</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0047295639</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.030188012</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.00013481731</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.7427117e-06</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2.602057266666667</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>39.818336</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>37.770436</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.0275641</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.35563312</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.45367619</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.21102627</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.049332183</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.044644994</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0020819627</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0026052261</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.6765584e-06</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>7.6995661e-09</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.3648776</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.414777e-06</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.2859625e-09</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.9906289e-13</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.1392693e-11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>7.692456000000001e-10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.6044689e-07</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.4441224e-10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.6834057e-10</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.3036474e-13</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>3.5252314e-15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>4.9212657e-13</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.0947898e-14</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4.8141407e-15</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4.4421179e-11</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>5.094507000000001e-10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.0893157e-19</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.00011101969</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.36476658</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.00013041934</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.9839089e-06</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>7.255226100000001e-05</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.1091798e-07</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>3.1690553e-06</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.3448972e-07</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>3.1970975e-09</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>3.5316282e-07</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>3.30056e-07</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>6.5327465e-07</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2.4088827e-16</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1.9724275e-12</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>3.4899589e-06</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.7394523e-05</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>4.4529166e-08</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1.6694895e-12</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>2.6020879</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.009737127599999999</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.0014251475</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.001015846</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>2.2737557e-10</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>2.6585794e-08</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.00011918729</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.01339426</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>5.0134506</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.39030859</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.05621185011</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.0307027003117</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.03555833881</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.0312770958</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2498,297 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>A.080.02.105</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Materials,  glass, other glass</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Silica glass</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.5288283637064</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02706328201</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03776590469999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0304008069964</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.43359837</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.012279327</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.019054838</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.019308344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0066692741</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0002395065</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.00084615741</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0018564371</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.001121866</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0044467894</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.029270721</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0001285132</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.2199964e-06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>2.8906558</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>44.052493</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41.955409</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.0747874</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.34315484</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.45910093</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.22004154</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.054632735</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.049421239</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0023072801</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0029042164</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.962904e-06</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>8.5328406e-09</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.406753</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.6825924e-06</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.0940262e-09</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.2114035e-13</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.0711538e-11</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>7.9461241e-10</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.7894001e-07</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.5205137e-10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.8590789e-10</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.225704e-13</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3.4096372e-15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>4.8215228e-13</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2.1038497e-14</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>4.8225887e-15</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4.71201e-11</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>5.1918166e-10</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.0241869e-19</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.00011379066</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.40663921</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.00014436443</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.0974901e-06</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>8.0599154e-05</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.2571847e-07</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>3.4704112e-06</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.2046989e-07</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>3.0059472e-09</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>3.3204767e-07</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>3.6429007e-07</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>6.4832805e-07</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2.2648588e-16</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1.8544986e-12</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>3.8052924e-06</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>5.2556342e-05</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>4.1875572e-08</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1.5696729e-12</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>2.8906846</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.009156165000000001</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.0014992427</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.0011260803</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>2.230661e-10</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>2.6079064e-08</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.00013009887</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.013721086</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>5.5877106</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.43359837</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.06025388411</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.03319882209639999</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.03776590469999999</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.030392587</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2807,297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>A.080.03.101</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Glass bottles 100% recycled</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.17605224988618</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.007408986512999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.010659955056</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00555091831718</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.15243239</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0040199695</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0058456071</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0061600121</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0010524376</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.2382773e-05</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.00011415404</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.00050501833</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0003405834</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.00027790671</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0052098212</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.1453416e-05</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.1371718e-07</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>1.016215933333333</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>15.379507</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>14.549035</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.47538607</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.085726843</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.17209562</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.097264294</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.018961481</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.017163884</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.00080350192</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.00099409521</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.0290098e-06</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.9715308e-09</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.13922902</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>9.4305235e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.8454164e-09</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>7.7740841e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>6.6942867e-13</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.8244798e-10</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>8.565920999999999e-08</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>3.9784858e-11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>8.6173654e-11</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.660164099999999e-15</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9.095305399999999e-16</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>6.5053916e-14</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>3.6563604e-15</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>8.1938133e-16</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.2267568e-11</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1.0288045e-10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>6.4007622e-21</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>3.8550144e-05</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.13919047</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>5.0006836e-05</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>6.0545654e-07</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.8334796e-05</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>6.204054400000001e-08</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.1712058e-06</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>1.3778494e-08</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.8785978e-10</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>2.0751663e-08</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1.1662178e-07</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1.0160678e-07</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1.4154469e-17</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1.1589881e-13</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.2150381e-06</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>1.8362672e-05</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>2.6810569e-09</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>9.8098334e-14</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>1.0162177</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.00058105983</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.00042145558</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.00038633818</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>3.0581758e-11</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>3.5714903e-09</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>4.3542866e-05</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.002824279</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1.9144168</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.15243239</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.017779581443</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.01037110864718</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.010659955056</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.0055504046</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3116,297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>A.080.03.102</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Glass bottles recycled average EU 74%</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0.1990263454112</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.009000876647000002</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.012797934324</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0080597844402</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.16916775</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0045710899</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0068028782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0070684937</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0016458094</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.209909700000001e-05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00019447445</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.00061505039</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00039787429</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.00078373359</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0076604614</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.5182244e-05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.4487502e-06</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.127785</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>17.10766</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>16.220489</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.49150806</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.10804799</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.18703388</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.10058098</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.021133752</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.019126035</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.00089453784</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0011131786</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.1466448e-06</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3.3082021e-09</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.15590737</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.0465957e-06</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3.1578316e-09</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>8.6276468e-14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.8878772e-12</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2.3831112e-10</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>9.9650016e-08</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4.9207473e-11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.0093653e-10</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>2.1602674e-14</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.1163054e-15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1.108197e-13</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>5.4407113e-15</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.2332787e-15</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1.5203613e-11</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1.4362515e-10</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.8050994e-20</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>4.3319892e-05</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.15586405</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>5.5772435e-05</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>7.2071156e-07</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.1445639e-05</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>7.5253404e-08</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.3178457e-06</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>3.8857171e-08</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>5.2978937e-10</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>5.8522428e-08</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.3365782e-07</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.5947166e-07</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3.9917472e-17</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>3.2684994e-13</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1.3938162e-06</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>2.0420702e-05</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>7.4278065e-09</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>2.7665025e-13</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>1.1277901</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.0016202857</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.00050677868</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.00043228069</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>5.1629094e-11</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>6.0331811e-09</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>4.9134574e-05</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.0038737077</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>2.1430708</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.16916775</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.020989895137</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0119904672402</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.012797934324</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.00805833569</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -718,18 +3425,297 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>A.080.03.103</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Glass bottles virgin</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0.2644141860882</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01353164106</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01888295205</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0152004029782</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.21679919</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0061396633</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.009527418899999999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.009654172000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0033346371</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.00011975325</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.00042307871</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.00092821855</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.00056093298</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0022233947</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01463536</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.42566e-05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.1099982e-06</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.445327933333333</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>22.026247</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>20.977704</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.53739371</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.17157742</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.22955047</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.11002077</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.027316368</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.02471062</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0011536401</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0014521082</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.481452e-06</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.2664203e-09</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.2033765</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.3412962e-06</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>4.0470131e-09</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.1057018e-13</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>5.3557692e-12</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3.9730621e-10</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.3947e-07</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.6025686e-11</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.4295395e-10</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.1285201e-14</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.7048186e-15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2.4107614e-13</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.0519248e-14</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2.4112944e-15</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2.356005e-11</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2.5959083e-10</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5.1209348e-20</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>5.6895329e-05</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.20331961</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>7.218221400000001e-05</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.0487451e-06</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>4.0299577e-05</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.1285923e-07</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.7352056e-06</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.1023494e-07</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.5029736e-09</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>1.6602384e-07</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>1.8214503e-07</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>3.2416403e-07</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1.1324294e-16</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>9.272493200000001e-13</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>1.9026462e-06</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2.6278171e-05</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>2.0937786e-08</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>7.8483648e-13</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>1.4453423</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.0045780825</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.00074962135</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.00056304014</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>1.1153305e-10</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>1.3039532e-08</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>6.5049435e-05</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.0068605433</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>2.7938553</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.21679919</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.03012694180999999</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.0165994107482</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.01888295205</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.01519629298</v>
+      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -748,18 +3734,297 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>A.080.03.104</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Glass bottles flint (=clean transparant), EoL-RIR in Europe 40%</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0.2290694121228</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0110825792</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.015593753287</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0113406096358</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.19105247</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0052917858</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0080546942</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.008256507999999999</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0024217573</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.00010480506</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.00029950884</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.00075893846</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.00047279315</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0014451995</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.010865145</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.3135327e-05</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.6714858e-06</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.273683133333333</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>19.367551</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>18.406236</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.51259065</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.13723719</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.20656853</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.10491818</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.023974413</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.021691925</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0010135848</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.001268903</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.3004751e-06</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3.7484645e-09</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.17771751</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.1819987e-06</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3.5663744e-09</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>9.7438442e-14</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3.481233e-12</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>3.1136292e-10</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.1794569e-07</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.1529355e-11</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.2024183e-10</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.9835187e-14</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1.3867034e-15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.7066725e-13</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>7.774093199999999e-15</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.7745292e-15</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.9043057e-11</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.9690668e-10</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.3285914e-20</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.9557255e-05</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.17766795</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>6.3312063e-05</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>8.714296600000001e-07</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>3.5513664e-05</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>9.2531759e-08</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.5096057e-06</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>7.1652364e-08</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>9.769280699999999e-10</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1.0791497e-07</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>1.5593573e-07</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>2.3514113e-07</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>7.3607552e-17</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>6.0270912e-13</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1.6276029e-06</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>2.3111971e-05</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>1.3635094e-08</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>5.1014122e-13</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>1.2736925</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.0029792734</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.00061835504</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.00049235936</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>7.9152533e-11</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>9.2523152e-09</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>5.6446807e-05</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.0052460375</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>2.4420799</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.19105247</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.02518799766</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.0141080899458</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.015593753287</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.01133793815</v>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -778,18 +4043,297 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>A.080.03.105</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Glass bottles brown EoL-RIR in Europe 50%</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>0.2202332080757</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01047031368</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.014771453548</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0103756608477</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.18461578</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0050798164</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.007686513</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.007907091999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0021935373</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.00010106801</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.00026861637</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.00071661844</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.00045075819</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0012506507</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.009922590800000001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.7855008e-05</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.3118577e-06</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.230771866666667</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>18.702877</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17.763369</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.50638989</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.12865213</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.20082304</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.10364253</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.023138924</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.020937252</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.00097857098</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0012231017</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.2552309e-06</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3.6189755e-09</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.17130276</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.1421743e-06</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3.4462148e-09</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>9.4155508e-14</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3.012599e-12</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2.8987709e-10</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.1256461e-07</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>5.7905272e-11</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.145638e-10</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.4472683e-14</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.3071746e-15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1.5306503e-13</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>7.0878044e-15</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.6153378e-15</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.7913809e-11</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.8123564e-10</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.8805055e-20</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4.7722736e-05</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.17125504</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>6.1094525e-05</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>8.271008e-07</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3.4317186e-05</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>8.7449889e-08</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.4532057e-06</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>6.200671899999999e-08</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>8.4541669e-10</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>9.338775e-08</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1.493834e-07</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>2.128854e-07</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6.3698704e-17</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>5.2157407e-13</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1.5588421e-06</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>2.2320421e-05</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1.1809422e-08</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>4.4146741e-13</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1.23078</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.0025795712</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.00058553846</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.00047468916</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>7.1057403e-11</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>8.3055111e-09</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>5.429615e-05</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.0048424111</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>2.354136</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.18461578</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.02395326152</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.0134852596977</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.014771453548</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.01037334899</v>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -808,18 +4352,297 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>A.080.03.106</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Glass bottles green EoL-RIR in Europe 80%</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.1937246370744</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.008633517437999998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.012304554343</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0074808152934</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.16530575</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0044439082</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0065819694</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0068588441</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0015088775</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.9856868e-05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.00017593897</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.00058965838</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.00038465332</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.00066700431</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.007094929</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.2014053e-05</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.2329734e-06</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.102038333333333</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>16.708855</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15.834769</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.4877876</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.10289696</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.18358659</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.09981559</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.020632458</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.018673231</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.00087352955</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0010856978</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.1194983e-06</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3.2305087e-09</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.15205852</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.0227011e-06</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>3.0857358e-09</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>8.4306708e-14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.6066968e-12</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2.2541963e-10</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>9.6421369e-08</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>4.7033023e-11</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>9.752971299999999e-11</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.8385172e-14</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.0685881e-15</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>1.0025836e-13</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5.028938e-15</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.1377639e-15</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.4526064e-11</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1.3422253e-10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.5362479e-20</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>4.2219181e-05</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.1520163</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5.4441912e-05</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>6.9411424e-07</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>3.0727752e-05</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>7.2204283e-08</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.2840058e-06</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3.3069784e-08</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>4.5088254e-10</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>4.9806098e-08</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>1.2972643e-07</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1.4611823e-07</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3.3972163e-17</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>2.7816891e-13</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>1.3525597e-06</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>1.9945772e-05</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>6.3324027e-09</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2.3544596e-13</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>1.1020426</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.0013804644</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.00048708874</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.00042167857</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>4.6772016e-11</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>5.4650986e-09</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>4.784418e-05</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.0036315318</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>2.0903045</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.16530575</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.020249053418</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.0116167689534</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.012304554343</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.00747958232</v>
+      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -838,18 +4661,297 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>A.080.03.107</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Materials,  glass, bottles</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Glass bottles unspecified colour EoL-RIR in Europe 52%</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>0.2184659752961</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01034786058</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.014606993584</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0101826711321</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.18332845</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0050374225</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0076128767</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0078372088</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0021478933</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0001003206</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.00026243788</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.00070815444</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0004463512</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.001211741</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.009734080000000001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.6798944e-05</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.2399321e-06</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.222189666666667</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="Z14" t="n">
+        <v>18.569942</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17.634796</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.50514974</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.12693512</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.19967395</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.1033874</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.022971827</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.020786317</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.00097156822</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0012139415</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.2461821e-06</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3.5930777e-09</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.17001981</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.1342094e-06</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3.4221828e-09</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>9.3498921e-14</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.9188721e-12</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.8557993e-10</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.1148839e-07</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>5.7180455e-11</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.1342819e-10</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.3400182e-14</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.2912688e-15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1.4954459e-13</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>6.9505467e-15</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.5834996e-15</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1.7687959e-11</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.7810144e-10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.7908883e-20</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>4.7355833e-05</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.16997246</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>6.0651017e-05</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>8.1823503e-07</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3.4077891e-05</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>8.6433516e-08</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.4419257e-06</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>6.007759e-08</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>8.1911441e-10</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>9.0482307e-08</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>1.4807294e-07</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>2.0843426e-07</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6.1716935e-17</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>5.0534706e-13</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>1.54509e-06</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>2.2162111e-05</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>1.1444287e-08</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>4.2773264e-13</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>1.2221975</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.0024996307</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.00057897515</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.00047115512</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>6.9438378e-11</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>8.1161502e-09</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>5.3866019e-05</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.0047616858</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>2.3365473</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.18332845</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.02370631422</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.0133606935721</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.014606993584</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.0101804312</v>
+      </c>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>glass.xlsx</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/industry/glass.xlsx
+++ b/Data_processed/industry/glass.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/glass.xlsx
+++ b/Data_processed/industry/glass.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/glass.xlsx
+++ b/Data_processed/industry/glass.xlsx
@@ -136,6 +136,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2644141860882</v>
+        <v>1.445327933333333</v>
       </c>
       <c r="E2" t="n">
-        <v>1.445327933333333</v>
+        <v>22.026247</v>
       </c>
       <c r="F2" t="n">
-        <v>22.026247</v>
+        <v>4.0299577e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3414474026384</v>
+        <v>1.818808266666667</v>
       </c>
       <c r="E3" t="n">
-        <v>1.818808266666667</v>
+        <v>23.2696</v>
       </c>
       <c r="F3" t="n">
-        <v>23.2696</v>
+        <v>5.07132e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5288283637064</v>
+        <v>2.8906558</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8906558</v>
+        <v>44.052493</v>
       </c>
       <c r="F4" t="n">
-        <v>44.052493</v>
+        <v>8.0599154e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2182564843135</v>
+        <v>1.1567294</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1567294</v>
+        <v>17.792089</v>
       </c>
       <c r="F5" t="n">
-        <v>17.792089</v>
+        <v>3.2252684e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4826706598317</v>
+        <v>2.602057266666667</v>
       </c>
       <c r="E6" t="n">
-        <v>2.602057266666667</v>
+        <v>39.818336</v>
       </c>
       <c r="F6" t="n">
-        <v>39.818336</v>
+        <v>7.255226100000001e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5288283637064</v>
+        <v>2.8906558</v>
       </c>
       <c r="E7" t="n">
-        <v>2.8906558</v>
+        <v>44.052493</v>
       </c>
       <c r="F7" t="n">
-        <v>44.052493</v>
+        <v>8.0599154e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.17605224988618</v>
+        <v>1.016215933333333</v>
       </c>
       <c r="E8" t="n">
-        <v>1.016215933333333</v>
+        <v>15.379507</v>
       </c>
       <c r="F8" t="n">
-        <v>15.379507</v>
+        <v>2.8334796e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1990263454112</v>
+        <v>1.127785</v>
       </c>
       <c r="E9" t="n">
-        <v>1.127785</v>
+        <v>17.10766</v>
       </c>
       <c r="F9" t="n">
-        <v>17.10766</v>
+        <v>3.1445639e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2644141860882</v>
+        <v>1.445327933333333</v>
       </c>
       <c r="E10" t="n">
-        <v>1.445327933333333</v>
+        <v>22.026247</v>
       </c>
       <c r="F10" t="n">
-        <v>22.026247</v>
+        <v>4.0299577e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2290694121228</v>
+        <v>1.273683133333333</v>
       </c>
       <c r="E11" t="n">
-        <v>1.273683133333333</v>
+        <v>19.367551</v>
       </c>
       <c r="F11" t="n">
-        <v>19.367551</v>
+        <v>3.5513664e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2202332080757</v>
+        <v>1.230771866666667</v>
       </c>
       <c r="E12" t="n">
-        <v>1.230771866666667</v>
+        <v>18.702877</v>
       </c>
       <c r="F12" t="n">
-        <v>18.702877</v>
+        <v>3.4317186e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1937246370744</v>
+        <v>1.102038333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>1.102038333333333</v>
+        <v>16.708855</v>
       </c>
       <c r="F13" t="n">
-        <v>16.708855</v>
+        <v>3.0727752e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2184659752961</v>
+        <v>1.222189666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>1.222189666666667</v>
+        <v>18.569942</v>
       </c>
       <c r="F14" t="n">
-        <v>18.569942</v>
+        <v>3.4077891e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -875,5 +920,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>